--- a/Strategy PnL.xlsx
+++ b/Strategy PnL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard\Google Drive\Trading &amp; Investing\Strategies, patterns &amp; ideas\Growth stock high volume short\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/115e5277c8eb1d13/Documents/GitHub/Growth-stock-high-volume-short/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2AE254-66F2-4EF6-B21C-8678AAFEBF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{6C2AE254-66F2-4EF6-B21C-8678AAFEBF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EE2FA54-ED7D-42E6-9CD1-A2A032702548}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2985" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5850" yWindow="3975" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>PnL</t>
   </si>
@@ -55,13 +55,44 @@
   </si>
   <si>
     <t>n shares</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>theor buy</t>
+  </si>
+  <si>
+    <t>theor sell</t>
+  </si>
+  <si>
+    <t>theor return</t>
+  </si>
+  <si>
+    <t>real return</t>
+  </si>
+  <si>
+    <t>est slippage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,17 +118,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Procent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -375,71 +410,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="4" width="10.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="E2" s="2"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44559</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
+        <v>48.29</v>
+      </c>
+      <c r="D2" s="2">
+        <v>48.62</v>
+      </c>
+      <c r="E2">
+        <v>2000</v>
+      </c>
+      <c r="F2" s="3">
+        <f>(D2-C2)*E2</f>
+        <v>659.99999999999659</v>
+      </c>
+      <c r="G2">
+        <f>29*2</f>
+        <v>58</v>
+      </c>
+      <c r="H2" s="3">
+        <f>F2-G2</f>
+        <v>601.99999999999659</v>
+      </c>
+      <c r="J2">
+        <v>48.2</v>
+      </c>
+      <c r="K2">
+        <v>48.78</v>
+      </c>
+      <c r="L2" s="4">
+        <f>J2/K2-1</f>
+        <v>-1.1890118901188962E-2</v>
+      </c>
+      <c r="M2" s="4">
+        <f>C2/D2-1</f>
+        <v>-6.7873303167420573E-3</v>
+      </c>
+      <c r="N2" s="5">
+        <f>L2-M2</f>
+        <v>-5.1027885844469045E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="E4" s="2"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="E5" s="2"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Strategy PnL.xlsx
+++ b/Strategy PnL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/115e5277c8eb1d13/Documents/GitHub/Growth-stock-high-volume-short/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{6C2AE254-66F2-4EF6-B21C-8678AAFEBF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EE2FA54-ED7D-42E6-9CD1-A2A032702548}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{6C2AE254-66F2-4EF6-B21C-8678AAFEBF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A03B7C67-0CA3-408F-BAA4-2F1DB5A3787F}"/>
   <bookViews>
-    <workbookView xWindow="5850" yWindow="3975" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>PnL</t>
   </si>
@@ -66,9 +66,6 @@
     <t>SF</t>
   </si>
   <si>
-    <t>theor buy</t>
-  </si>
-  <si>
     <t>theor sell</t>
   </si>
   <si>
@@ -78,7 +75,19 @@
     <t>real return</t>
   </si>
   <si>
-    <t>est slippage</t>
+    <t>NIBE B</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Time initiated</t>
+  </si>
+  <si>
+    <t>est trans cost</t>
+  </si>
+  <si>
+    <t>theor buy (close)</t>
   </si>
 </sst>
 </file>
@@ -122,13 +131,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,140 +420,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="4" width="10.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="5" width="10.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44564</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.38908564814814817</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>44559</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2">
-        <v>48.29</v>
-      </c>
       <c r="D2" s="2">
-        <v>48.62</v>
-      </c>
-      <c r="E2">
-        <v>2000</v>
-      </c>
-      <c r="F2" s="3">
-        <f>(D2-C2)*E2</f>
-        <v>659.99999999999659</v>
+        <f>(250*133.35+500*131.5)/750</f>
+        <v>132.11666666666667</v>
+      </c>
+      <c r="E2" s="2">
+        <v>134.9</v>
+      </c>
+      <c r="F2">
+        <v>750</v>
       </c>
       <c r="G2">
+        <f>(E2-D2)*F2</f>
+        <v>2087.4999999999986</v>
+      </c>
+      <c r="H2">
         <f>29*2</f>
         <v>58</v>
       </c>
-      <c r="H2" s="3">
-        <f>F2-G2</f>
+      <c r="I2">
+        <f>G2-H2</f>
+        <v>2029.4999999999986</v>
+      </c>
+      <c r="J2" s="3">
+        <f>I2+J3</f>
+        <v>2631.4999999999955</v>
+      </c>
+      <c r="K2">
+        <v>131.5</v>
+      </c>
+      <c r="L2">
+        <v>135</v>
+      </c>
+      <c r="M2" s="4">
+        <f>K2/L2-1</f>
+        <v>-2.5925925925925908E-2</v>
+      </c>
+      <c r="N2" s="4">
+        <f>D2/E2-1</f>
+        <v>-2.0632567333827456E-2</v>
+      </c>
+      <c r="O2" s="5">
+        <f>M2-N2</f>
+        <v>-5.2933585920984516E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44559</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>48.29</v>
+      </c>
+      <c r="E3" s="2">
+        <v>48.62</v>
+      </c>
+      <c r="F3">
+        <v>2000</v>
+      </c>
+      <c r="G3" s="3">
+        <f>(E3-D3)*F3</f>
+        <v>659.99999999999659</v>
+      </c>
+      <c r="H3">
+        <f>29*2</f>
+        <v>58</v>
+      </c>
+      <c r="I3" s="3">
+        <f>G3-H3</f>
         <v>601.99999999999659</v>
       </c>
-      <c r="J2">
+      <c r="J3" s="3">
+        <f>I3+J4</f>
+        <v>601.99999999999659</v>
+      </c>
+      <c r="K3">
         <v>48.2</v>
       </c>
-      <c r="K2">
+      <c r="L3">
         <v>48.78</v>
       </c>
-      <c r="L2" s="4">
-        <f>J2/K2-1</f>
+      <c r="M3" s="4">
+        <f>K3/L3-1</f>
         <v>-1.1890118901188962E-2</v>
       </c>
-      <c r="M2" s="4">
-        <f>C2/D2-1</f>
+      <c r="N3" s="4">
+        <f>D3/E3-1</f>
         <v>-6.7873303167420573E-3</v>
       </c>
-      <c r="N2" s="5">
-        <f>L2-M2</f>
+      <c r="O3" s="5">
+        <f>M3-N3</f>
         <v>-5.1027885844469045E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="F3" s="2"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44558</v>
+      </c>
       <c r="B4" s="1"/>
-      <c r="F4" s="2"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+      <c r="G4" s="2"/>
+      <c r="I4" s="3"/>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="F5" s="2"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+      <c r="G5" s="2"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="F6" s="2"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="G6" s="2"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="G7" s="2"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Strategy PnL.xlsx
+++ b/Strategy PnL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/115e5277c8eb1d13/Documents/GitHub/Growth-stock-high-volume-short/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Documents\GitHub\Growth-stock-high-volume-short\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{6C2AE254-66F2-4EF6-B21C-8678AAFEBF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A03B7C67-0CA3-408F-BAA4-2F1DB5A3787F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD30B39-C2AF-4388-A221-8BC65588A644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>PnL</t>
   </si>
@@ -66,15 +66,6 @@
     <t>SF</t>
   </si>
   <si>
-    <t>theor sell</t>
-  </si>
-  <si>
-    <t>theor return</t>
-  </si>
-  <si>
-    <t>real return</t>
-  </si>
-  <si>
     <t>NIBE B</t>
   </si>
   <si>
@@ -84,16 +75,43 @@
     <t>Time initiated</t>
   </si>
   <si>
-    <t>est trans cost</t>
-  </si>
-  <si>
-    <t>theor buy (close)</t>
+    <t>LATO B</t>
+  </si>
+  <si>
+    <t>KINV B</t>
+  </si>
+  <si>
+    <t>avg ret</t>
+  </si>
+  <si>
+    <t>st dev</t>
+  </si>
+  <si>
+    <t>PDX</t>
+  </si>
+  <si>
+    <t>MIPS</t>
+  </si>
+  <si>
+    <t>SINCH</t>
+  </si>
+  <si>
+    <t>return ink fees</t>
+  </si>
+  <si>
+    <t>kelly f</t>
+  </si>
+  <si>
+    <t>BALD B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,7 +149,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -139,10 +157,11 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Procent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -155,6 +174,910 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cum PnL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$J$2:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>22848.190000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24016.189999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19642.429999999946</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18388.999999999924</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16758.879999999943</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17739.53999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9573.5199999999459</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4473.2899999999727</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4364.8299999999726</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6072.8299999999645</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6057.899999999976</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3565.8999999999787</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2631.4999999999955</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>601.99999999999659</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9393-429A-9C2C-DF64AF1A4ACE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="623082704"/>
+        <c:axId val="623083984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="623082704"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="623083984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="623083984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="623082704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>326278</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>29136</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>36606</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E4021D3-A7CB-4AA6-8517-4F7F87A562DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,29 +1343,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="5" width="10.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="4" max="5" width="10.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
@@ -469,172 +1392,634 @@
         <v>5</v>
       </c>
       <c r="K1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>44564</v>
+        <v>44579</v>
       </c>
       <c r="B2" s="6">
-        <v>0.38908564814814817</v>
+        <v>0.38677083333333334</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2">
-        <f>(250*133.35+500*131.5)/750</f>
-        <v>132.11666666666667</v>
+        <v>94.78</v>
       </c>
       <c r="E2" s="2">
-        <v>134.9</v>
+        <v>94.04</v>
       </c>
       <c r="F2">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="G2">
-        <f>(E2-D2)*F2</f>
-        <v>2087.4999999999986</v>
+        <f t="shared" ref="G2:G15" si="0">(E2-D2)*F2</f>
+        <v>-1109.9999999999923</v>
       </c>
       <c r="H2">
         <f>29*2</f>
         <v>58</v>
       </c>
       <c r="I2">
-        <f>G2-H2</f>
-        <v>2029.4999999999986</v>
+        <f t="shared" ref="I2:I15" si="1">G2-H2</f>
+        <v>-1167.9999999999923</v>
       </c>
       <c r="J2" s="3">
-        <f>I2+J3</f>
-        <v>2631.4999999999955</v>
-      </c>
-      <c r="K2">
-        <v>131.5</v>
-      </c>
-      <c r="L2">
-        <v>135</v>
-      </c>
-      <c r="M2" s="4">
-        <f>K2/L2-1</f>
-        <v>-2.5925925925925908E-2</v>
-      </c>
-      <c r="N2" s="4">
-        <f>D2/E2-1</f>
-        <v>-2.0632567333827456E-2</v>
-      </c>
-      <c r="O2" s="5">
-        <f>M2-N2</f>
-        <v>-5.2933585920984516E-3</v>
+        <f t="shared" ref="J2:J15" si="2">I2+J3</f>
+        <v>22848.190000000002</v>
+      </c>
+      <c r="K2" s="4">
+        <f>I2/(E2*F2)</f>
+        <v>-8.2801644690202198E-3</v>
+      </c>
+      <c r="M2" s="5">
+        <f>AVERAGE(K2:K15)</f>
+        <v>7.695606871875869E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>44559</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>44579</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.39446759259259262</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
       </c>
       <c r="D3" s="2">
-        <v>48.29</v>
+        <v>293.60789999999997</v>
       </c>
       <c r="E3" s="2">
-        <v>48.62</v>
+        <v>298.10000000000002</v>
       </c>
       <c r="F3">
+        <v>1000</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>4492.1000000000504</v>
+      </c>
+      <c r="H3">
+        <f>58.72+59.62</f>
+        <v>118.34</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>4373.7600000000502</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" si="2"/>
+        <v>24016.189999999995</v>
+      </c>
+      <c r="K3" s="4">
+        <f>I3/(E3*F3)</f>
+        <v>1.4672123448507381E-2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>44579</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.38696759259259261</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>97.742999999999995</v>
+      </c>
+      <c r="E4" s="2">
+        <v>98.2</v>
+      </c>
+      <c r="F4">
+        <v>3000</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1371.0000000000236</v>
+      </c>
+      <c r="H4">
+        <f>58.65+58.92</f>
+        <v>117.57</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>1253.4300000000237</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="2"/>
+        <v>19642.429999999946</v>
+      </c>
+      <c r="K4" s="4">
+        <f>I4/(E4*F4)</f>
+        <v>4.2546843177190211E-3</v>
+      </c>
+      <c r="M4" s="4">
+        <f>_xlfn.STDEV.S(K2:K15)</f>
+        <v>1.3347540965325652E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>44578</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.38532407407407404</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2">
+        <v>562.86670000000004</v>
+      </c>
+      <c r="E5" s="2">
+        <v>565.80930000000001</v>
+      </c>
+      <c r="F5">
+        <v>600</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1765.5599999999822</v>
+      </c>
+      <c r="H5">
+        <f>67.54+67.9</f>
+        <v>135.44</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>1630.1199999999822</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="2"/>
+        <v>18388.999999999924</v>
+      </c>
+      <c r="K5" s="4">
+        <f>I5/(E5*F5)</f>
+        <v>4.801735614219556E-3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>44575</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.57991898148148147</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2">
+        <v>101.05</v>
+      </c>
+      <c r="E6" s="2">
+        <v>100.6</v>
+      </c>
+      <c r="F6">
         <v>2000</v>
       </c>
-      <c r="G3" s="3">
-        <f>(E3-D3)*F3</f>
-        <v>659.99999999999659</v>
-      </c>
-      <c r="H3">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>-900.00000000000568</v>
+      </c>
+      <c r="H6">
+        <f>40.42+40.24</f>
+        <v>80.66</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>-980.66000000000565</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="2"/>
+        <v>16758.879999999943</v>
+      </c>
+      <c r="K6" s="4">
+        <f>I6/(E6*F6)</f>
+        <v>-4.8740556660040041E-3</v>
+      </c>
+      <c r="M6" s="7">
+        <f>M2/M4^2</f>
+        <v>43.195683352090533</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>44575</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.5446643518518518</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>102.2038</v>
+      </c>
+      <c r="E7" s="2">
+        <v>105.95</v>
+      </c>
+      <c r="F7">
+        <v>2200</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>8241.6400000000031</v>
+      </c>
+      <c r="H7">
+        <f>29+46.62</f>
+        <v>75.62</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>8166.0200000000032</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="2"/>
+        <v>17739.53999999995</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" ref="K7:K15" si="3">I7/(E7*F7)</f>
+        <v>3.5033763782230054E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>44575</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.41636574074074079</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
+        <v>307.92860000000002</v>
+      </c>
+      <c r="E8" s="2">
+        <v>315.33929999999998</v>
+      </c>
+      <c r="F8">
+        <v>700</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>5187.4899999999743</v>
+      </c>
+      <c r="H8">
+        <f>43.11+44.15</f>
+        <v>87.259999999999991</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>5100.2299999999741</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="2"/>
+        <v>9573.5199999999459</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="3"/>
+        <v>2.3105406960511488E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>44574</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.40348379629629627</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2">
+        <v>950</v>
+      </c>
+      <c r="E9" s="2">
+        <v>951</v>
+      </c>
+      <c r="F9">
+        <v>175</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="H9">
+        <f>33.25+33.29</f>
+        <v>66.539999999999992</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>108.46000000000001</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="2"/>
+        <v>4473.2899999999727</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="3"/>
+        <v>6.5170497220970415E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>44574</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.69003472222222229</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2">
+        <v>178</v>
+      </c>
+      <c r="E10" s="2">
+        <v>175.8</v>
+      </c>
+      <c r="F10">
+        <v>750</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>-1649.9999999999914</v>
+      </c>
+      <c r="H10">
         <f>29*2</f>
         <v>58</v>
       </c>
-      <c r="I3" s="3">
-        <f>G3-H3</f>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>-1707.9999999999914</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="2"/>
+        <v>4364.8299999999726</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.2954114524080329E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>44568</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.39664351851851848</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2">
+        <v>300.25</v>
+      </c>
+      <c r="E11" s="2">
+        <v>300.39999999999998</v>
+      </c>
+      <c r="F11">
+        <v>500</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>74.999999999988631</v>
+      </c>
+      <c r="H11">
+        <f>30.03+30.04</f>
+        <v>60.07</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>14.929999999988631</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="2"/>
+        <v>6072.8299999999645</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="3"/>
+        <v>9.9400798934677967E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>44568</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.39664351851851848</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2">
+        <v>121.75</v>
+      </c>
+      <c r="E12" s="2">
+        <v>124.3</v>
+      </c>
+      <c r="F12">
+        <v>1000</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>2549.9999999999973</v>
+      </c>
+      <c r="H12">
+        <f>29+29</f>
+        <v>58</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>2491.9999999999973</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="2"/>
+        <v>6057.899999999976</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="3"/>
+        <v>2.0048270313757017E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>44568</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.38866898148148149</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
+        <v>342.8</v>
+      </c>
+      <c r="E13" s="2">
+        <v>344.63639999999998</v>
+      </c>
+      <c r="F13">
+        <v>550</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>1010.019999999983</v>
+      </c>
+      <c r="H13">
+        <f>37.91+37.71</f>
+        <v>75.62</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>934.39999999998304</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="2"/>
+        <v>3565.8999999999787</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="3"/>
+        <v>4.9295695141577042E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>44564</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.38908564814814817</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
+        <f>(250*133.35+500*131.5)/750</f>
+        <v>132.11666666666667</v>
+      </c>
+      <c r="E14" s="2">
+        <v>134.9</v>
+      </c>
+      <c r="F14">
+        <v>750</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>2087.4999999999986</v>
+      </c>
+      <c r="H14">
+        <f>29*2</f>
+        <v>58</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>2029.4999999999986</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="2"/>
+        <v>2631.4999999999955</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="3"/>
+        <v>2.0059303187546316E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>44559</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2">
+        <v>48.29</v>
+      </c>
+      <c r="E15" s="2">
+        <v>48.62</v>
+      </c>
+      <c r="F15">
+        <v>2000</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>659.99999999999659</v>
+      </c>
+      <c r="H15">
+        <f>29*2</f>
+        <v>58</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="1"/>
         <v>601.99999999999659</v>
       </c>
-      <c r="J3" s="3">
-        <f>I3+J4</f>
+      <c r="J15" s="3">
+        <f t="shared" si="2"/>
         <v>601.99999999999659</v>
       </c>
-      <c r="K3">
-        <v>48.2</v>
-      </c>
-      <c r="L3">
-        <v>48.78</v>
-      </c>
-      <c r="M3" s="4">
-        <f>K3/L3-1</f>
-        <v>-1.1890118901188962E-2</v>
-      </c>
-      <c r="N3" s="4">
-        <f>D3/E3-1</f>
-        <v>-6.7873303167420573E-3</v>
-      </c>
-      <c r="O3" s="5">
-        <f>M3-N3</f>
-        <v>-5.1027885844469045E-3</v>
+      <c r="K15" s="4">
+        <f t="shared" si="3"/>
+        <v>6.1908679555738024E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
         <v>44558</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="G4" s="2"/>
-      <c r="I4" s="3"/>
-      <c r="J4">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="G16" s="2"/>
+      <c r="I16" s="3"/>
+      <c r="J16">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="G5" s="2"/>
-      <c r="I5" s="3"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="G17" s="2"/>
+      <c r="I17" s="3"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="G6" s="2"/>
-      <c r="I6" s="3"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="I18" s="3"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="G7" s="2"/>
-      <c r="I7" s="3"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="G19" s="2"/>
+      <c r="I19" s="3"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="F8" s="1"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>